--- a/ig/M-Priour-patch-1/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/M-Priour-patch-1/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:17:15+00:00</t>
+    <t>2023-04-28T06:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
